--- a/predict.xlsx
+++ b/predict.xlsx
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1064,25 +1064,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1165,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1245,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1319,22 +1319,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
@@ -1343,13 +1343,13 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1402,22 +1402,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -1429,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1488,28 +1488,28 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1574,40 +1574,40 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1660,40 +1660,40 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1746,16 +1746,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2010,37 +2010,37 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2093,43 +2093,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -2209,10 +2209,10 @@
         <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2271,19 +2271,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2680,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2799,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2852,43 +2852,43 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
